--- a/pouring_simulation/output/summary_medium_test_50_final.xlsx
+++ b/pouring_simulation/output/summary_medium_test_50_final.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielschober/Documents/GitHub/thesis/pouring_simulation/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{157FE7AF-0539-BB4B-A970-58CF358B3503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83B4EBF-35F7-A940-A22C-CDDD577DDC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="1320" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary_medium_test_50_final" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="333">
   <si>
     <t>scene_number</t>
   </si>
@@ -517,21 +517,9 @@
     <t>28.0</t>
   </si>
   <si>
-    <t>236</t>
-  </si>
-  <si>
-    <t>../../output/MediumBottle/Medium_60_600_58</t>
-  </si>
-  <si>
     <t>0.01</t>
   </si>
   <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>../../output/MediumBottle/Medium_50_600_22</t>
-  </si>
-  <si>
     <t>233</t>
   </si>
   <si>
@@ -667,12 +655,6 @@
     <t>4.685</t>
   </si>
   <si>
-    <t>617</t>
-  </si>
-  <si>
-    <t>../../output/MediumBottle/Medium_80_1000_28</t>
-  </si>
-  <si>
     <t>1024</t>
   </si>
   <si>
@@ -736,12 +718,6 @@
     <t>14.605</t>
   </si>
   <si>
-    <t>290</t>
-  </si>
-  <si>
-    <t>../../output/MediumBottle/Medium_180_1399_34</t>
-  </si>
-  <si>
     <t>1037</t>
   </si>
   <si>
@@ -851,12 +827,204 @@
   </si>
   <si>
     <t>172.9</t>
+  </si>
+  <si>
+    <t>../../output/MediumBottle/Medium_370_1399_78</t>
+  </si>
+  <si>
+    <t>369.9</t>
+  </si>
+  <si>
+    <t>273.10</t>
+  </si>
+  <si>
+    <t>249.60</t>
+  </si>
+  <si>
+    <t>23.50</t>
+  </si>
+  <si>
+    <t>../../output/MediumBottle/Medium_350_1399_54</t>
+  </si>
+  <si>
+    <t>349.9</t>
+  </si>
+  <si>
+    <t>87.3</t>
+  </si>
+  <si>
+    <t>78.5</t>
+  </si>
+  <si>
+    <t>8.80</t>
+  </si>
+  <si>
+    <t>../../output/MediumBottle/Medium_430_1000_46</t>
+  </si>
+  <si>
+    <t>46.0</t>
+  </si>
+  <si>
+    <t>429.89</t>
+  </si>
+  <si>
+    <t>87.03</t>
+  </si>
+  <si>
+    <t>79.04</t>
+  </si>
+  <si>
+    <t>7.99</t>
+  </si>
+  <si>
+    <t>../../output/MediumBottle/Medium_410_1399_90</t>
+  </si>
+  <si>
+    <t>409.892</t>
+  </si>
+  <si>
+    <t>380.678</t>
+  </si>
+  <si>
+    <t>341.74</t>
+  </si>
+  <si>
+    <t>38.935</t>
+  </si>
+  <si>
+    <t>151.3</t>
+  </si>
+  <si>
+    <t>151.6</t>
+  </si>
+  <si>
+    <t>275.3</t>
+  </si>
+  <si>
+    <t>274.8</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>300.1</t>
+  </si>
+  <si>
+    <t>299.1</t>
+  </si>
+  <si>
+    <t>230.2</t>
+  </si>
+  <si>
+    <t>229.8</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>43.2</t>
+  </si>
+  <si>
+    <t>43.1</t>
+  </si>
+  <si>
+    <t>20.2</t>
+  </si>
+  <si>
+    <t>19.9</t>
+  </si>
+  <si>
+    <t>203.1</t>
+  </si>
+  <si>
+    <t>201.3</t>
+  </si>
+  <si>
+    <t>59.2</t>
+  </si>
+  <si>
+    <t>59.1</t>
+  </si>
+  <si>
+    <t>127.1</t>
+  </si>
+  <si>
+    <t>127.0</t>
+  </si>
+  <si>
+    <t>105.8</t>
+  </si>
+  <si>
+    <t>105.4</t>
+  </si>
+  <si>
+    <t>321.1</t>
+  </si>
+  <si>
+    <t>320.0</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>125.3</t>
+  </si>
+  <si>
+    <t>125.0</t>
+  </si>
+  <si>
+    <t>196.2</t>
+  </si>
+  <si>
+    <t>196.0</t>
+  </si>
+  <si>
+    <t>37.2</t>
+  </si>
+  <si>
+    <t>305.3</t>
+  </si>
+  <si>
+    <t>304.5</t>
+  </si>
+  <si>
+    <t>121.5</t>
+  </si>
+  <si>
+    <t>120.3</t>
+  </si>
+  <si>
+    <t>118.3</t>
+  </si>
+  <si>
+    <t>118.0</t>
+  </si>
+  <si>
+    <t>391.1</t>
+  </si>
+  <si>
+    <t>390.0</t>
+  </si>
+  <si>
+    <t>169.3</t>
+  </si>
+  <si>
+    <t>169.1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1698,11 +1866,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="87" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1786,7 +1954,7 @@
         <v>20</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -1827,7 +1995,7 @@
         <v>20</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -1862,13 +2030,13 @@
         <v>83</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -1909,7 +2077,7 @@
         <v>20</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -1950,7 +2118,7 @@
         <v>20</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -1991,7 +2159,7 @@
         <v>20</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -2032,7 +2200,7 @@
         <v>20</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -2064,16 +2232,16 @@
         <v>60</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -2114,7 +2282,7 @@
         <v>20</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -2155,7 +2323,7 @@
         <v>20</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -2187,16 +2355,16 @@
         <v>72</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -2228,16 +2396,16 @@
         <v>80</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>48</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -2278,7 +2446,7 @@
         <v>20</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -2310,16 +2478,16 @@
         <v>91</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -2351,16 +2519,16 @@
         <v>97</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -2392,16 +2560,16 @@
         <v>103</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -2442,7 +2610,7 @@
         <v>20</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -2474,16 +2642,16 @@
         <v>111</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -2515,16 +2683,16 @@
         <v>117</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -2565,7 +2733,7 @@
         <v>20</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -2597,16 +2765,16 @@
         <v>126</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -2647,7 +2815,7 @@
         <v>20</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -2679,13 +2847,16 @@
         <v>135</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>20</v>
+        <v>291</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>20</v>
+        <v>290</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>20</v>
+        <v>266</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -2717,13 +2888,16 @@
         <v>140</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>20</v>
+        <v>292</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>20</v>
+        <v>293</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>20</v>
+        <v>294</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -2755,13 +2929,16 @@
         <v>146</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>20</v>
+        <v>295</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>20</v>
+        <v>296</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
@@ -2793,13 +2970,16 @@
         <v>151</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>20</v>
+        <v>297</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>20</v>
+        <v>298</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>20</v>
+        <v>299</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -2840,7 +3020,7 @@
         <v>20</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
@@ -2881,7 +3061,7 @@
         <v>20</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -2913,13 +3093,16 @@
         <v>161</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>20</v>
+        <v>301</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>20</v>
+        <v>247</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -2960,118 +3143,118 @@
         <v>20</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>94</v>
+        <v>168</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>37</v>
+        <v>169</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>20</v>
+        <v>302</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>20</v>
+        <v>303</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>20</v>
+        <v>266</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>19</v>
+        <v>174</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>19</v>
+        <v>176</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>20</v>
+        <v>304</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>20</v>
+        <v>305</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>173</v>
+        <v>41</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>175</v>
+        <v>43</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>72</v>
+        <v>180</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>20</v>
@@ -3081,73 +3264,79 @@
       </c>
       <c r="L34" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>88</v>
+        <v>183</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>20</v>
+        <v>306</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>20</v>
+        <v>307</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>20</v>
+        <v>247</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>41</v>
+        <v>169</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>20</v>
@@ -3159,33 +3348,33 @@
         <v>20</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>189</v>
+        <v>19</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>190</v>
@@ -3199,75 +3388,78 @@
       <c r="L37" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="M37" s="1" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>193</v>
+        <v>100</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>173</v>
+        <v>114</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>18</v>
+        <v>199</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>20</v>
+        <v>308</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>20</v>
+        <v>309</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>20</v>
+        <v>247</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>15</v>
+        <v>203</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>198</v>
+        <v>84</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>19</v>
+        <v>204</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>20</v>
@@ -3279,308 +3471,323 @@
         <v>20</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>114</v>
+        <v>207</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>20</v>
+        <v>310</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>20</v>
+        <v>311</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>20</v>
+        <v>299</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>207</v>
+        <v>87</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>84</v>
+        <v>213</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>167</v>
+        <v>216</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>20</v>
+        <v>312</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>20</v>
+        <v>313</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>20</v>
+        <v>314</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>94</v>
+        <v>168</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>211</v>
+        <v>53</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>20</v>
+        <v>315</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>20</v>
+        <v>316</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>20</v>
+        <v>266</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>164</v>
+        <v>75</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>187</v>
+        <v>132</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>18</v>
+        <v>224</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>20</v>
+        <v>225</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>18</v>
+        <v>226</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>20</v>
+        <v>261</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>20</v>
+        <v>316</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>20</v>
+        <v>247</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>20</v>
+        <v>317</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>20</v>
+        <v>318</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>20</v>
+        <v>48</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>172</v>
+        <v>234</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>20</v>
+        <v>319</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>20</v>
+        <v>319</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>132</v>
+        <v>53</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>20</v>
+        <v>328</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>20</v>
+        <v>329</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>20</v>
+        <v>48</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>235</v>
+        <v>191</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>236</v>
+        <v>19</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>237</v>
+        <v>165</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>20</v>
@@ -3590,165 +3797,202 @@
       </c>
       <c r="L47" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>238</v>
+        <v>330</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>17</v>
+        <v>270</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>18</v>
+        <v>271</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>19</v>
+        <v>272</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>19</v>
+        <v>273</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>20</v>
+        <v>320</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>20</v>
+        <v>321</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>20</v>
+        <v>263</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>240</v>
+        <v>331</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>242</v>
+        <v>189</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>77</v>
+        <v>275</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>20</v>
+        <v>322</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>20</v>
+        <v>323</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>20</v>
+        <v>260</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>246</v>
+        <v>81</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>53</v>
+        <v>281</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>20</v>
+        <v>324</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>20</v>
+        <v>325</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>20</v>
+        <v>266</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>251</v>
+        <v>332</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>252</v>
+        <v>285</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>172</v>
+        <v>87</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>154</v>
+        <v>286</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>195</v>
+        <v>287</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>19</v>
+        <v>288</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>167</v>
+        <v>289</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>20</v>
+        <v>326</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>20</v>
+        <v>327</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>20</v>
+        <v>314</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>253</v>
-      </c>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/pouring_simulation/output/summary_medium_test_50_final.xlsx
+++ b/pouring_simulation/output/summary_medium_test_50_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielschober/Documents/GitHub/thesis/pouring_simulation/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83B4EBF-35F7-A940-A22C-CDDD577DDC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F1F369-B89D-9049-AFC6-1D62A08969FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1320" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1869,8 +1869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="87" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+      <selection sqref="A1:M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
